--- a/Modeling_byaracho/plan_regression.xlsx
+++ b/Modeling_byaracho/plan_regression.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/House_Price_Project_X/1.Modeling_byaracho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/House_Price_Project_X/Modeling_byaracho/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7520" yWindow="460" windowWidth="18080" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
-    <sheet name="시트2" sheetId="2" r:id="rId2"/>
+    <sheet name="시트3" sheetId="3" r:id="rId2"/>
+    <sheet name="시트2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="147">
   <si>
     <t>cook's distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>leverage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from_formula</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +88,6 @@
   </si>
   <si>
     <t>2 coef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3 coef</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -261,18 +254,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*다중공선성에서 높은 것은 빼도 되는 것</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>**categorical 상관계수 높은 것에 인코딩된 것만 들어간 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상관계수 높은 numerical 15 +categorical 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>갯수 14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +267,6 @@
   </si>
   <si>
     <t>anova_lm?!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해결 어떻게?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -375,15 +356,284 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**0값 있으면 np.log에러</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GrLivArea log</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>pvalue &gt; 0.05 지움</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cor_category 4개 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['Neighborhood', 'ExterQual', 'KitchenQual', 'BsmtQual', 'PoolQC']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>corr 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_col 늘림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(p-value)cat_col늘림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 + regularized</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 + regularized(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n+c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_col 늘림(correlation 합집합)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***add constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>log 변수변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>***outlier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj r^2 비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.resid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.cooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.resid+cooks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.IQR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*outlier 바꿔서 해보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resid_cooks outliers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인코딩 의미찾기?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*다중공선성(VIF)에서 높은 것은 빼도 되는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**0값 있으면 프롬 포뮬라에서 np.log에러</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 coef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(22) + c(4) = 61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;MSZoning 1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(9)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(9)+c(4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(16)+c(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11 + regularized(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번파일(numeric만)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n(22)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 + regularized(0.01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폭망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10번파일 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from_formula / 1stFlrSF 빼고, scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ill-conditioned 개선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIF보고 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 + overallcon 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19***.*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ANOVA 모형비교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C(ExterQual) </t>
+  </si>
+  <si>
+    <t>C(KitchenQual)</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(BsmtQual)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C(Neighborhood)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scale(EnclosedPorch)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ scale(OverallCond)</t>
+  </si>
+  <si>
+    <t>scale(BsmtFinSF1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ scale(GarageCars)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + scale(BsmtFullBath)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + scale(MasVnrArea)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ scale(Fireplaces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + scale(TotalBsmtSF)</t>
+  </si>
+  <si>
+    <t>+ scale(ScreenPorch)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + scale(WoodDeckSF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + scale(LotArea)</t>
+  </si>
+  <si>
+    <t>+ scale(YearBuilt)</t>
+  </si>
+  <si>
+    <t>+ scale(GrLivArea)</t>
+  </si>
+  <si>
+    <t>+ scale(KitchenAbvGr)</t>
+  </si>
+  <si>
+    <t>+ scale(FullBath)</t>
+  </si>
+  <si>
+    <t>+ scale(OverallQual)</t>
+  </si>
+  <si>
+    <t>16 + MasVnr, enclosedporch 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관계수 높은 numerical 15 +categorical 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>['MSZoning', 'Neighborhood', 'Condition2', 'RoofMatl', 'Functional']</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leverage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,6 +768,34 @@
       <color theme="4"/>
       <name val="맑은 고딕 (본문)"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -660,7 +938,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -715,6 +993,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
@@ -998,23 +1287,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0"/>
+    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1024,20 +1315,20 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -1045,10 +1336,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1059,7 +1350,7 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -1070,13 +1361,13 @@
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1085,13 +1376,13 @@
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1100,13 +1391,13 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1115,16 +1406,16 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1132,33 +1423,33 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -1167,10 +1458,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3</v>
+        <v>146</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>0</v>
@@ -1186,10 +1477,10 @@
     </row>
     <row r="13" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -1200,14 +1491,14 @@
     <row r="14" spans="1:7" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="1"/>
@@ -1215,16 +1506,16 @@
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="1"/>
@@ -1232,16 +1523,16 @@
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="16" t="s">
-        <v>16</v>
+        <v>102</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="1"/>
@@ -1249,14 +1540,14 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="1"/>
@@ -1264,26 +1555,26 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="13" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -1293,10 +1584,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="16"/>
       <c r="D20" s="16"/>
@@ -1307,10 +1598,10 @@
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
@@ -1320,13 +1611,13 @@
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -1335,13 +1626,13 @@
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -1349,13 +1640,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1365,13 +1656,13 @@
     <row r="25" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>36</v>
       </c>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -1379,13 +1670,13 @@
     </row>
     <row r="26" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -1395,13 +1686,13 @@
     <row r="27" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
@@ -1409,13 +1700,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
@@ -1424,10 +1715,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -1446,50 +1737,50 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1500,34 +1791,569 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:D9"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="38">
+        <v>9.0483999999999995E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="39">
+        <v>6.3172420000000002E-31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="39">
+        <v>3.7128949999999997E-32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="40">
+        <v>0.153614</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="37">
+        <v>3.5958129999999999E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" s="39">
+        <v>7.4012429999999996E-75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="37">
+        <v>4.5926760000000004E-18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="37">
+        <v>2.1760850000000001E-9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="40">
+        <v>0.75101799999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="39">
+        <v>1.309629E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="39">
+        <v>1.215084E-29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="38">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="38">
+        <v>1.5999999999999999E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="39">
+        <v>1.3223230000000001E-46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" s="39">
+        <v>5.9278620000000002E-40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="39">
+        <v>1.2875579999999999E-143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="39">
+        <v>2.5987930000000002E-10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="38">
+        <v>4.1599999999999996E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="39">
+        <v>5.6191469999999999E-37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B3">
         <v>0.18210999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.18096000000000001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>3</v>
+      </c>
+      <c r="B6" s="30">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.13883999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>5</v>
+      </c>
       <c r="B9">
-        <v>0.18096000000000001</v>
+        <v>0.83665999999999996</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>104</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>0.46295999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0.38723999999999997</v>
+      </c>
+      <c r="C11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+    </row>
+    <row r="13" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>0.12841</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>0.12444</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.12444</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="32">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="33">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>0.12422999999999999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="37">
+        <v>9040000000000000</v>
+      </c>
+      <c r="F33">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G33" s="35">
+        <v>17499.563072792102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>12</v>
+      </c>
+      <c r="B34">
+        <v>0.22569</v>
+      </c>
+      <c r="C34" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="33">
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>0.13849</v>
+      </c>
+      <c r="C36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="33">
+        <v>15</v>
+      </c>
+      <c r="B39">
+        <v>0.12435</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="37">
+        <v>1100000000000000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
+        <v>16</v>
+      </c>
+      <c r="B40">
+        <v>0.12413</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40">
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G40" s="35">
+        <v>17670.620010251601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>17</v>
+      </c>
+      <c r="B41">
+        <v>0.14052000000000001</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41">
+        <v>110</v>
+      </c>
+      <c r="F41">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="G41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>0.12431</v>
+      </c>
+      <c r="C43" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43">
+        <v>107</v>
+      </c>
+      <c r="F43">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="G43" s="35">
+        <v>17662.942749154699</v>
       </c>
     </row>
   </sheetData>

--- a/Modeling_byaracho/plan_regression.xlsx
+++ b/Modeling_byaracho/plan_regression.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/House_Price_Project_X/Modeling_byaracho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ara/1_House_Price_Project_X/Modeling_byaracho/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
     <sheet name="시트3" sheetId="3" r:id="rId2"/>
     <sheet name="시트2" sheetId="2" r:id="rId3"/>
+    <sheet name="시트6" sheetId="6" r:id="rId4"/>
+    <sheet name="시트4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="206">
   <si>
     <t>cook's distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -636,12 +638,248 @@
     <t>leverage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>variable select</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외한 칼럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제외한 이유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotRmsAbvGrd, Yearsold, YearRemodAdd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIF Factor와 상관관계 고려</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GarageArea, GarageYrBlt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*위에서 제외한 칼럼 다시 제외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1의 VIF factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_4의 VIF factor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numerical feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>categorical feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test 데이터에 없는 더미 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상관계수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolQC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Condition2, RoofMatl, Functional</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(select_2 | select_3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-test p_value &lt; 0.005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t-test p_value &lt; 0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(select_c1 | select_c2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adj rsquared</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ill No.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaggle 제출 결과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2)numerical + categorical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1)numerical</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_5 + c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PoolArea, 1stFlrArea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rmse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Cond. No. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1 + c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1 + c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select_1 + c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outliers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leverage &gt; 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leverage | cook's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leverage | cook's | IQR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none값이 많음, scale 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -797,8 +1035,33 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -811,8 +1074,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -930,15 +1205,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1004,13 +1305,28 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="기본" xfId="0" builtinId="0"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="5" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1293,11 +1609,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1974,13 +2290,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showRuler="0" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2359,5 +2675,593 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>201</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C6" s="42"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="42"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="43"/>
+      <c r="B2" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F2" s="46"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" s="46"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="46"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="46"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="46"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="46"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="47"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="47"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="46"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="46"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="B18" s="41">
+        <v>0.91175208039948497</v>
+      </c>
+      <c r="C18" s="41">
+        <v>-2139.2885869151401</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-2034.6194785427101</v>
+      </c>
+      <c r="E18" s="41">
+        <v>6.12</v>
+      </c>
+      <c r="F18" s="41">
+        <v>23458.841351468101</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0.14201</v>
+      </c>
+      <c r="H18" s="48"/>
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="41">
+        <v>0.906240514919332</v>
+      </c>
+      <c r="C19" s="41">
+        <v>-2059.32885737588</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-1975.5935706779401</v>
+      </c>
+      <c r="E19" s="41">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F19" s="41">
+        <v>24158.4036333533</v>
+      </c>
+      <c r="G19" s="41">
+        <v>0.14440800000000001</v>
+      </c>
+      <c r="H19" s="48"/>
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="41">
+        <v>0.86715980043216101</v>
+      </c>
+      <c r="C20" s="41">
+        <v>-1580.7345285276799</v>
+      </c>
+      <c r="D20" s="41">
+        <v>-1517.9330635042299</v>
+      </c>
+      <c r="E20" s="41">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F20" s="41">
+        <v>27157.2055500118</v>
+      </c>
+      <c r="G20" s="41"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="29"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B21" s="41">
+        <v>0.90916931221956299</v>
+      </c>
+      <c r="C21" s="41">
+        <v>-2100.3211032811901</v>
+      </c>
+      <c r="D21" s="41">
+        <v>-2000.8854503273801</v>
+      </c>
+      <c r="E21" s="41">
+        <v>20.6</v>
+      </c>
+      <c r="F21" s="41">
+        <v>23478.3176716979</v>
+      </c>
+      <c r="G21" s="41">
+        <v>0.14387</v>
+      </c>
+      <c r="H21" s="48"/>
+      <c r="I21" s="29"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="41">
+        <v>0.90635281264714496</v>
+      </c>
+      <c r="C22" s="41">
+        <v>-2060.00075256124</v>
+      </c>
+      <c r="D22" s="41">
+        <v>-1971.03201044467</v>
+      </c>
+      <c r="E22" s="41">
+        <v>4.76</v>
+      </c>
+      <c r="F22" s="41">
+        <v>24082.210784946099</v>
+      </c>
+      <c r="G22" s="41">
+        <v>0.14382</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="29"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="29"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" s="29"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="51">
+        <v>0.94112503336775799</v>
+      </c>
+      <c r="C26" s="51">
+        <v>-2666.7804518825101</v>
+      </c>
+      <c r="D26" s="51">
+        <v>-2384.1738592769502</v>
+      </c>
+      <c r="E26" s="51">
+        <v>116</v>
+      </c>
+      <c r="F26" s="51">
+        <v>17513.471846654898</v>
+      </c>
+      <c r="G26" s="51">
+        <v>0.1245</v>
+      </c>
+      <c r="H26" s="50"/>
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="41">
+        <v>0.91360332076456996</v>
+      </c>
+      <c r="C27" s="41">
+        <v>-2170.9508583673601</v>
+      </c>
+      <c r="D27" s="41">
+        <v>-2045.3826104074001</v>
+      </c>
+      <c r="E27" s="41">
+        <v>91</v>
+      </c>
+      <c r="F27" s="51">
+        <v>23462.65571635</v>
+      </c>
+      <c r="G27" s="41"/>
+      <c r="I27" s="29"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="52" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" s="52">
+        <v>0.94220187772168895</v>
+      </c>
+      <c r="C28" s="52">
+        <v>-2693.9477330765699</v>
+      </c>
+      <c r="D28" s="52">
+        <v>-2390.4911338400202</v>
+      </c>
+      <c r="E28" s="52">
+        <v>124</v>
+      </c>
+      <c r="F28" s="52">
+        <v>17515.3191436325</v>
+      </c>
+      <c r="G28" s="52">
+        <v>0.12382</v>
+      </c>
+      <c r="I28" s="29"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="41">
+        <v>0.94021728114787495</v>
+      </c>
+      <c r="C29" s="41">
+        <v>-2648.4708497697402</v>
+      </c>
+      <c r="D29" s="41">
+        <v>-2381.5646234200399</v>
+      </c>
+      <c r="E29" s="41">
+        <v>108</v>
+      </c>
+      <c r="F29" s="41">
+        <v>17630.544674784302</v>
+      </c>
+      <c r="G29" s="41">
+        <v>0.12467</v>
+      </c>
+      <c r="H29" s="48"/>
+      <c r="I29" s="29"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>